--- a/data/trans_orig/Q17F_D_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2000</v>
+        <v>2090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11126</v>
+        <v>11643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1149036421550689</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03932226424740996</v>
+        <v>0.04107885537134377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2186986054809924</v>
+        <v>0.2288573131648155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>930</v>
+        <v>1732</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8467</v>
+        <v>9331</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05217858343039237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01265004728146084</v>
+        <v>0.0235654865911386</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1152318243228525</v>
+        <v>0.1269787084593535</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>9680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4994</v>
+        <v>4508</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17292</v>
+        <v>16322</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.077839392967231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04015895768450903</v>
+        <v>0.03624773563067777</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1390541043174663</v>
+        <v>0.1312521963893523</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11178</v>
+        <v>11621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09194229867103433</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02092630053260627</v>
+        <v>0.02141137311402763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2197108738853314</v>
+        <v>0.2284272382674487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,19 +836,19 @@
         <v>3816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8763</v>
+        <v>9231</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05193459100107758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01287921302936281</v>
+        <v>0.01306440529466161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1192491530028698</v>
+        <v>0.1256235744228252</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -857,19 +857,19 @@
         <v>8494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3845</v>
+        <v>3822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16522</v>
+        <v>15364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06830173656295799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03092251669449754</v>
+        <v>0.03073566920299739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1328629951185639</v>
+        <v>0.1235491140680504</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>4477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1646</v>
+        <v>1671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10010</v>
+        <v>9517</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08800042364320182</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03235019032671535</v>
+        <v>0.03284312183004554</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1967662148732962</v>
+        <v>0.1870716038623947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>2756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7495</v>
+        <v>8374</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03750392482962273</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01212536022260922</v>
+        <v>0.01205467036336922</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1019976017306096</v>
+        <v>0.1139681592781034</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -928,19 +928,19 @@
         <v>7233</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3451</v>
+        <v>3490</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13316</v>
+        <v>13036</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05816203284383938</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02775204346197581</v>
+        <v>0.02806778791790375</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1070818559947772</v>
+        <v>0.1048268417658465</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>35874</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28671</v>
+        <v>28761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42473</v>
+        <v>41923</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.705153635530695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5635680538792465</v>
+        <v>0.5653335399532549</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8348699300631193</v>
+        <v>0.8240595478861601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -978,19 +978,19 @@
         <v>63075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57119</v>
+        <v>56581</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67884</v>
+        <v>67823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8583829007389073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7773355876451109</v>
+        <v>0.7700151575361395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9238274142494555</v>
+        <v>0.9229987681411221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -999,19 +999,19 @@
         <v>98949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90075</v>
+        <v>90037</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107268</v>
+        <v>106764</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7956968376259717</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7243410458048041</v>
+        <v>0.7240299056458018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8625966246809974</v>
+        <v>0.8585434578082641</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>6666</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2875</v>
+        <v>2677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13843</v>
+        <v>14259</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09732836121938993</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04197227421289932</v>
+        <v>0.03908368372052529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2021267826853042</v>
+        <v>0.2081955966838779</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -1124,19 +1124,19 @@
         <v>17902</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10646</v>
+        <v>10360</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27254</v>
+        <v>27626</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1245680379856654</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07407887117908217</v>
+        <v>0.07208733123945289</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1896418044709964</v>
+        <v>0.1922346390607721</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -1145,19 +1145,19 @@
         <v>24568</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15947</v>
+        <v>15667</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36720</v>
+        <v>35757</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1157763359354191</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07515122999667323</v>
+        <v>0.07383335926030389</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1730441234525495</v>
+        <v>0.1685076443792509</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>10374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5563</v>
+        <v>5401</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17224</v>
+        <v>16721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1514694381731509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08122684127477586</v>
+        <v>0.07886385275954076</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2514827058604919</v>
+        <v>0.2441429099104068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1195,19 +1195,19 @@
         <v>14829</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7903</v>
+        <v>8107</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23366</v>
+        <v>23462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1031894064465796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05499250229012027</v>
+        <v>0.05641336751159827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1625929947970456</v>
+        <v>0.1632605938970826</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1216,19 +1216,19 @@
         <v>25203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16149</v>
+        <v>17850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35825</v>
+        <v>35452</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1187719575010022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07610101879390109</v>
+        <v>0.08411871448954321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1688276717926743</v>
+        <v>0.1670702093746779</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>7071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2674</v>
+        <v>2699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13850</v>
+        <v>13981</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1032459616792738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03903787390646869</v>
+        <v>0.03940888416479006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2022319721880948</v>
+        <v>0.2041333702862968</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1266,19 +1266,19 @@
         <v>9731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4488</v>
+        <v>4718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17115</v>
+        <v>18676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06770918144195123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03122952499322873</v>
+        <v>0.03282861316696455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1190929034196753</v>
+        <v>0.1299564262922505</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1287,19 +1287,19 @@
         <v>16802</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9650</v>
+        <v>9871</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27741</v>
+        <v>26482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07917880299261625</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04547637306970446</v>
+        <v>0.04651570617869075</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.130731615320362</v>
+        <v>0.1247989452297582</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>44377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36680</v>
+        <v>36502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52572</v>
+        <v>52426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6479562389281854</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5355700548618887</v>
+        <v>0.5329724140695526</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7676104889112363</v>
+        <v>0.7654702577860715</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1337,19 +1337,19 @@
         <v>101249</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88970</v>
+        <v>88906</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111614</v>
+        <v>112990</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7045333741258037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6190892620113658</v>
+        <v>0.6186476093681034</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7766557680987133</v>
+        <v>0.7862324380085615</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>141</v>
@@ -1358,19 +1358,19 @@
         <v>145626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>131270</v>
+        <v>131958</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159578</v>
+        <v>158865</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6862729035709625</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.618616062052919</v>
+        <v>0.6218591572291996</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7520215695180407</v>
+        <v>0.7486607173317039</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>7657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3639</v>
+        <v>3707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13775</v>
+        <v>14561</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09255574415243858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04398189133485959</v>
+        <v>0.0448074636075728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1664999419683246</v>
+        <v>0.1759978684682421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1483,19 +1483,19 @@
         <v>26266</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18081</v>
+        <v>18353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38483</v>
+        <v>37999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1574292924756368</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1083753050112019</v>
+        <v>0.1100057215784091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2306598684348436</v>
+        <v>0.227758094561915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1504,19 +1504,19 @@
         <v>33923</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24240</v>
+        <v>24831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46629</v>
+        <v>46472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1359237698449771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09712565544657104</v>
+        <v>0.09949561011232713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1868356309456107</v>
+        <v>0.186205652141035</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>7535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3180</v>
+        <v>3169</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13998</v>
+        <v>15177</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09107175966926541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03843721449310725</v>
+        <v>0.03830097910160313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1691979725027272</v>
+        <v>0.1834448740146855</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -1554,19 +1554,19 @@
         <v>8027</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3866</v>
+        <v>3038</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14968</v>
+        <v>14314</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04811228375028363</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02316916471472918</v>
+        <v>0.01821099705648316</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08971677351399879</v>
+        <v>0.08579294423861773</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1575,19 +1575,19 @@
         <v>15562</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9131</v>
+        <v>9490</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>26702</v>
+        <v>24598</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06235331118683247</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03658623471991909</v>
+        <v>0.03802367756281443</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1069901572957366</v>
+        <v>0.09855990207393223</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>6756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2908</v>
+        <v>2949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12608</v>
+        <v>12947</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08166404435282865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03514635141318252</v>
+        <v>0.03565008564161769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1523940409880069</v>
+        <v>0.1564914515521393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1625,19 +1625,19 @@
         <v>19226</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12264</v>
+        <v>11863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28372</v>
+        <v>28738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1152333757114534</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07351030694962504</v>
+        <v>0.07110688978166563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1700558836525785</v>
+        <v>0.1722472052122481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1646,19 +1646,19 @@
         <v>25982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17554</v>
+        <v>17193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37693</v>
+        <v>36019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1041051727090154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07033445225020259</v>
+        <v>0.0688913619326697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.151028350477473</v>
+        <v>0.14432205351206</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>60785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52024</v>
+        <v>51668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68563</v>
+        <v>68329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7347084518254674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6288125674946358</v>
+        <v>0.6245142119234328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8287204328759437</v>
+        <v>0.8259018321331923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1696,19 +1696,19 @@
         <v>113322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101390</v>
+        <v>100914</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124451</v>
+        <v>125143</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6792250480626262</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6077100613789663</v>
+        <v>0.6048540150774304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7459278196224499</v>
+        <v>0.7500760404293365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>165</v>
@@ -1717,19 +1717,19 @@
         <v>174107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157846</v>
+        <v>157749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>187120</v>
+        <v>186991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6976177462591751</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6324658124830642</v>
+        <v>0.6320752683390652</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7497625336501872</v>
+        <v>0.7492441212690705</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>11061</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5443</v>
+        <v>6029</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19258</v>
+        <v>18119</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1424459223011222</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07009723198530889</v>
+        <v>0.07764760140651225</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2480123188637233</v>
+        <v>0.2333463815886966</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1842,19 +1842,19 @@
         <v>19038</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11931</v>
+        <v>12167</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27934</v>
+        <v>29163</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.141076009126275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08841090577153843</v>
+        <v>0.09016376811026856</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2069989267155006</v>
+        <v>0.2161086336341596</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1863,19 +1863,19 @@
         <v>30098</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21214</v>
+        <v>21351</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42359</v>
+        <v>41375</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1415763582256261</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09978586444642228</v>
+        <v>0.1004304542529283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1992457107585675</v>
+        <v>0.1946204541334279</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>6865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2848</v>
+        <v>2840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13307</v>
+        <v>14229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08840939764983097</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03668419434157839</v>
+        <v>0.03657424523565622</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.171380240141836</v>
+        <v>0.1832449900143019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1913,19 +1913,19 @@
         <v>11230</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5981</v>
+        <v>6170</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19640</v>
+        <v>19491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08322072834235282</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04432100034269092</v>
+        <v>0.04572507925251738</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.145540066527888</v>
+        <v>0.1444384563274014</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1934,19 +1934,19 @@
         <v>18095</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10991</v>
+        <v>10976</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28066</v>
+        <v>27969</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08511584553846058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05170089770290959</v>
+        <v>0.05162689074070439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1320158811647754</v>
+        <v>0.1315619300115571</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>6952</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3208</v>
+        <v>3011</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13979</v>
+        <v>13938</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0895378590710962</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04131672800093602</v>
+        <v>0.03878194253680547</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.180030003956649</v>
+        <v>0.1795067460286709</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1984,19 +1984,19 @@
         <v>13263</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7229</v>
+        <v>7773</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21581</v>
+        <v>21954</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09828659168183225</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05356627615657546</v>
+        <v>0.05760143345883913</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1599222718326747</v>
+        <v>0.1626896852416607</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -2005,19 +2005,19 @@
         <v>20216</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12495</v>
+        <v>12902</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29581</v>
+        <v>29926</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09509119173779286</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0587736132410977</v>
+        <v>0.06069001932823181</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1391442548497449</v>
+        <v>0.1407672375827533</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>52770</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43265</v>
+        <v>44154</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60518</v>
+        <v>61124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6796068209779507</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5571988508237408</v>
+        <v>0.5686422393067969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7793855052114634</v>
+        <v>0.7871905553583999</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -2055,19 +2055,19 @@
         <v>91415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80444</v>
+        <v>80378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102052</v>
+        <v>102042</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6774166708495398</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5961233597766832</v>
+        <v>0.5956310024555729</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7562433382158856</v>
+        <v>0.756172133175889</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -2076,19 +2076,19 @@
         <v>144185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128310</v>
+        <v>130153</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157006</v>
+        <v>156196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6782166044981204</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6035406146717051</v>
+        <v>0.6122110037463132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.738521474702509</v>
+        <v>0.7347117989517241</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>16414</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9506</v>
+        <v>9983</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24077</v>
+        <v>24202</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1407558415916339</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08151583932625629</v>
+        <v>0.08560918483641709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2064765331804354</v>
+        <v>0.2075504916679204</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2201,19 +2201,19 @@
         <v>16695</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9709</v>
+        <v>10030</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25133</v>
+        <v>26073</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1172349237511148</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06817943107536885</v>
+        <v>0.07042891165492127</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1764811927875894</v>
+        <v>0.1830834429760127</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -2222,19 +2222,19 @@
         <v>33109</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>23693</v>
+        <v>23703</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45431</v>
+        <v>45247</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1278240198508301</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09147212095984079</v>
+        <v>0.09151255810580124</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1753954003205097</v>
+        <v>0.174687797046549</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>10200</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4874</v>
+        <v>5364</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17549</v>
+        <v>17862</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08747355717974743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04180105136375168</v>
+        <v>0.04600309229031584</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1504892063387092</v>
+        <v>0.1531813888654753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2272,19 +2272,19 @@
         <v>18994</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12399</v>
+        <v>12274</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29454</v>
+        <v>28611</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1333770273027373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08706757899993889</v>
+        <v>0.08618998210403561</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.206828087518222</v>
+        <v>0.2009037564304947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2293,19 +2293,19 @@
         <v>29194</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20206</v>
+        <v>20214</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40334</v>
+        <v>41536</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1127113262557572</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07801039189415042</v>
+        <v>0.07804237044343618</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1557169018746296</v>
+        <v>0.1603577313856467</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>9597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4460</v>
+        <v>4779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17539</v>
+        <v>17805</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08230096950999256</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03824323323377461</v>
+        <v>0.04098226958334938</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1504086652677969</v>
+        <v>0.1526855894763957</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2343,19 +2343,19 @@
         <v>11738</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6495</v>
+        <v>6060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19691</v>
+        <v>19142</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0824246217096378</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0456081266347162</v>
+        <v>0.04255287591981115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1382732293611091</v>
+        <v>0.1344159245290428</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2364,19 +2364,19 @@
         <v>21335</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13410</v>
+        <v>13702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32004</v>
+        <v>31314</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0823689536003462</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05177099370894916</v>
+        <v>0.05290139465987004</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1235602428902304</v>
+        <v>0.1208963935036138</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>80399</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>69694</v>
+        <v>70866</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>90212</v>
+        <v>89567</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6894696317186261</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5976701378338579</v>
+        <v>0.6077167930676255</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7736215347429776</v>
+        <v>0.7680935384167474</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>96</v>
@@ -2414,19 +2414,19 @@
         <v>94982</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>83997</v>
+        <v>82615</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>106128</v>
+        <v>105905</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.66696342723651</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5898283178835564</v>
+        <v>0.5801235777471326</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7452320790670005</v>
+        <v>0.7436701204650946</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>179</v>
@@ -2435,19 +2435,19 @@
         <v>175381</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>159934</v>
+        <v>159865</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>190207</v>
+        <v>189684</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6770957002930665</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6174594959964631</v>
+        <v>0.6171944110867629</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7343372752372009</v>
+        <v>0.7323177505734423</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>21232</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13274</v>
+        <v>14149</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31254</v>
+        <v>30790</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1675814341725715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1047704676874313</v>
+        <v>0.1116761480861348</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2466798368693466</v>
+        <v>0.2430205674936546</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2560,19 +2560,19 @@
         <v>9921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5415</v>
+        <v>5467</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17194</v>
+        <v>16682</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06611949240920625</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03609110075840855</v>
+        <v>0.03643916499379493</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1145929113061062</v>
+        <v>0.1111804988503586</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -2581,19 +2581,19 @@
         <v>31153</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22193</v>
+        <v>22383</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42526</v>
+        <v>43381</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1125712072502033</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08019456862594233</v>
+        <v>0.08087934089541204</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1536665367301164</v>
+        <v>0.1567553455276985</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>8891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4431</v>
+        <v>4334</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15184</v>
+        <v>15690</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07017326345755312</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.034972874747333</v>
+        <v>0.03421061726927221</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1198433011338282</v>
+        <v>0.1238363609163956</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2631,19 +2631,19 @@
         <v>11558</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6596</v>
+        <v>6362</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19687</v>
+        <v>19325</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07702843399747956</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04395786805416886</v>
+        <v>0.04239810494102401</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1312083362309587</v>
+        <v>0.1287957267637049</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -2652,19 +2652,19 @@
         <v>20448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13079</v>
+        <v>13184</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30270</v>
+        <v>29290</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07388997221000722</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04725927172502979</v>
+        <v>0.04764008723021445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1093784525897481</v>
+        <v>0.1058387716850363</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>12498</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7453</v>
+        <v>7161</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20212</v>
+        <v>19927</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09864132406572479</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05882429465741328</v>
+        <v>0.05651619013054299</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1595287044864957</v>
+        <v>0.1572805646585149</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2702,19 +2702,19 @@
         <v>22555</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14457</v>
+        <v>15068</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31137</v>
+        <v>32362</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1503225157812104</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09635142225099264</v>
+        <v>0.1004243007760872</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2075187209083617</v>
+        <v>0.2156846955487779</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>38</v>
@@ -2723,19 +2723,19 @@
         <v>35053</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25581</v>
+        <v>25032</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>46326</v>
+        <v>45648</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1266616244313324</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0924362046238642</v>
+        <v>0.09045101821033084</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1673964627185429</v>
+        <v>0.164947814754062</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>84078</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71480</v>
+        <v>73134</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93192</v>
+        <v>93599</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6636039783041505</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5641698652641359</v>
+        <v>0.5772278114329299</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7355423236552641</v>
+        <v>0.7387526353143602</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>116</v>
@@ -2773,19 +2773,19 @@
         <v>106010</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>95716</v>
+        <v>94981</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>116524</v>
+        <v>115620</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7065295578121038</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6379213586578401</v>
+        <v>0.6330271582309166</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7766034159952374</v>
+        <v>0.7705783686399144</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>202</v>
@@ -2794,19 +2794,19 @@
         <v>190088</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>173898</v>
+        <v>175021</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>203554</v>
+        <v>204769</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6868771961084571</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6283756831674946</v>
+        <v>0.6324337855504893</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7355354351097354</v>
+        <v>0.7399264233580559</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>5502</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2494</v>
+        <v>2477</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11169</v>
+        <v>11054</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06706716392201763</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03039829604732857</v>
+        <v>0.03019454166804562</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1361555106569233</v>
+        <v>0.1347559737881815</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2919,19 +2919,19 @@
         <v>9805</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4527</v>
+        <v>4574</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17780</v>
+        <v>19181</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06251166595572896</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0288610969747341</v>
+        <v>0.02916209946699322</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1133560325105744</v>
+        <v>0.1222853726074006</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2940,19 +2940,19 @@
         <v>15307</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8385</v>
+        <v>8480</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24501</v>
+        <v>24207</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06407599076048656</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03510201151288042</v>
+        <v>0.03549992912615507</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1025668615731945</v>
+        <v>0.1013335043282071</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>3555</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>829</v>
+        <v>949</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8425</v>
+        <v>9271</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04334305388526068</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01010800624234638</v>
+        <v>0.0115653723784381</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1027033104949881</v>
+        <v>0.1130231439152077</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -2990,19 +2990,19 @@
         <v>9082</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4441</v>
+        <v>4411</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17211</v>
+        <v>17141</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05790366028703294</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02831324610292842</v>
+        <v>0.02812136535375785</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1097261824240646</v>
+        <v>0.1092843326865186</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -3011,19 +3011,19 @@
         <v>12638</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7008</v>
+        <v>7141</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21390</v>
+        <v>21334</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05290365415484685</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02933586031818635</v>
+        <v>0.02989292063979657</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08954366944013488</v>
+        <v>0.08930579751477699</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>9002</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4690</v>
+        <v>4533</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15415</v>
+        <v>14943</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.109741783965948</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05716874136444831</v>
+        <v>0.05525530101582438</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1879138239940762</v>
+        <v>0.1821687416227124</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>12</v>
@@ -3061,19 +3061,19 @@
         <v>13573</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7166</v>
+        <v>7582</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>23151</v>
+        <v>22584</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08653507679703037</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04568321434970669</v>
+        <v>0.04834001978766578</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1475968597524949</v>
+        <v>0.1439801446075812</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -3082,19 +3082,19 @@
         <v>22575</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14365</v>
+        <v>14353</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>33228</v>
+        <v>32775</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09450409092671057</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06013298598039561</v>
+        <v>0.06008521277505913</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1390957592976502</v>
+        <v>0.1372017600348101</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>63972</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>55410</v>
+        <v>56651</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>70371</v>
+        <v>70230</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7798479982267738</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6754722126320007</v>
+        <v>0.6906042449348646</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8578529275134136</v>
+        <v>0.8561378858335091</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>109</v>
@@ -3132,19 +3132,19 @@
         <v>124391</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>112638</v>
+        <v>112410</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>133931</v>
+        <v>134487</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7930495969602077</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7181167609548593</v>
+        <v>0.7166658065714812</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8538677107709973</v>
+        <v>0.8574128637099938</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>177</v>
@@ -3153,19 +3153,19 @@
         <v>188363</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>173182</v>
+        <v>175623</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>199582</v>
+        <v>200584</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7885162641579561</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7249638284983587</v>
+        <v>0.735184261575823</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8354813583580586</v>
+        <v>0.8396762448974125</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>74377</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1229204096985757</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>98</v>
@@ -3278,19 +3278,19 @@
         <v>103460</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1068492411132026</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>174</v>
@@ -3299,19 +3299,19 @@
         <v>177837</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1130298724751896</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>52097</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>40196</v>
+        <v>38817</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>68582</v>
+        <v>68450</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08609963429655268</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06643036636916297</v>
+        <v>0.06415130200349313</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1133436127784544</v>
+        <v>0.1131250066018421</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>75</v>
@@ -3349,19 +3349,19 @@
         <v>77537</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>62145</v>
+        <v>60984</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>96284</v>
+        <v>94975</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08007685257596721</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06418078540672054</v>
+        <v>0.06298158054561183</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09943831938667617</v>
+        <v>0.09808587538604113</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>127</v>
@@ -3370,19 +3370,19 @@
         <v>129635</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>106679</v>
+        <v>108882</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>150591</v>
+        <v>151550</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08239308697988801</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06780286877469786</v>
+        <v>0.06920316933745896</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09571261465628383</v>
+        <v>0.09632236298102227</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>56354</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>43713</v>
+        <v>43585</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>73184</v>
+        <v>71903</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09313414231447054</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07224264351937087</v>
+        <v>0.07203111520530847</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1209481982039693</v>
+        <v>0.1188323281116986</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>92</v>
@@ -3420,19 +3420,19 @@
         <v>92841</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>73839</v>
+        <v>75136</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>113537</v>
+        <v>112313</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09588252486244646</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07625812400136127</v>
+        <v>0.07759669845042637</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1172555971205964</v>
+        <v>0.1159923482286536</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>150</v>
@@ -3441,19 +3441,19 @@
         <v>149195</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>128642</v>
+        <v>127305</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>172786</v>
+        <v>171835</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09482555509198323</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08176252726270171</v>
+        <v>0.08091258364697439</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1098191862862715</v>
+        <v>0.1092147885360028</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>422255</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>397634</v>
+        <v>398829</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>443866</v>
+        <v>443118</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6978458136904011</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6571553375956551</v>
+        <v>0.659131003881766</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7335621289823773</v>
+        <v>0.7323254508724355</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>680</v>
@@ -3491,19 +3491,19 @@
         <v>694444</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>665798</v>
+        <v>666045</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>721082</v>
+        <v>723639</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.7171913814483837</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6876069785721091</v>
+        <v>0.6878616894074273</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7447017637665109</v>
+        <v>0.7473423526119863</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1102</v>
@@ -3512,19 +3512,19 @@
         <v>1116700</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1082440</v>
+        <v>1080288</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1150354</v>
+        <v>1150746</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.7097514854529392</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6879769955386079</v>
+        <v>0.6866089364336172</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7311413803997244</v>
+        <v>0.7313907890488199</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>4924</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11226</v>
+        <v>12148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08485609737535577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03189647476904702</v>
+        <v>0.03164420075561977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1934562919645171</v>
+        <v>0.209334811182942</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3880,19 +3880,19 @@
         <v>8094</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3877</v>
+        <v>3828</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14673</v>
+        <v>14915</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08489537412555008</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04066521170839364</v>
+        <v>0.04014777237957964</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1538989598324103</v>
+        <v>0.1564322839071987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3901,19 +3901,19 @@
         <v>13019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7319</v>
+        <v>7187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22288</v>
+        <v>22074</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08488051367109446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04771847433979314</v>
+        <v>0.04686091653072996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1453171986486964</v>
+        <v>0.1439240427576917</v>
       </c>
     </row>
     <row r="5">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7152</v>
+        <v>7118</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03465072690505454</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1232432813059749</v>
+        <v>0.1226551398479988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3951,19 +3951,19 @@
         <v>11156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6063</v>
+        <v>6113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18733</v>
+        <v>18924</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1170086719151051</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0635882550698363</v>
+        <v>0.06411448845870756</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1964779093848647</v>
+        <v>0.1984749129917922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -3972,19 +3972,19 @@
         <v>13167</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7741</v>
+        <v>7952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21508</v>
+        <v>21030</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08584834208065235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05047359224894903</v>
+        <v>0.0518493272317577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1402309819708853</v>
+        <v>0.1371178424168378</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>7228</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2994</v>
+        <v>3263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13662</v>
+        <v>14370</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1245619020058928</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05160091628855887</v>
+        <v>0.05623213472554105</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2354308093956687</v>
+        <v>0.2476349792167731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -4022,19 +4022,19 @@
         <v>13058</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7890</v>
+        <v>7114</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20752</v>
+        <v>20845</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1369524252044949</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08275454657378231</v>
+        <v>0.07461301023014527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2176525333112867</v>
+        <v>0.2186229602910781</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -4043,19 +4043,19 @@
         <v>20286</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12877</v>
+        <v>13056</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30678</v>
+        <v>30417</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1322644404612772</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08395616555233124</v>
+        <v>0.08512740183309651</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2000163237952558</v>
+        <v>0.1983167908530051</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>43867</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36392</v>
+        <v>35918</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49901</v>
+        <v>49859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7559312737136969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6271188698509699</v>
+        <v>0.6189556822439853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8599102455148738</v>
+        <v>0.8591920524531257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -4093,19 +4093,19 @@
         <v>63037</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53191</v>
+        <v>52994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71921</v>
+        <v>71773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6611435287548499</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.557879502703352</v>
+        <v>0.55581064578301</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7543277604275306</v>
+        <v>0.7527711260661097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -4114,19 +4114,19 @@
         <v>106903</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94748</v>
+        <v>94709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117725</v>
+        <v>117924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.697006703786976</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6177565153062606</v>
+        <v>0.6174981787222149</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7675625211925027</v>
+        <v>0.7688627502135669</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>7884</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3843</v>
+        <v>3892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14918</v>
+        <v>15512</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08259009620152485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04025987309474843</v>
+        <v>0.04076861480143037</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1562757986341506</v>
+        <v>0.1625006079978403</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -4239,19 +4239,19 @@
         <v>18200</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11147</v>
+        <v>10176</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27844</v>
+        <v>26725</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1137875314370442</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06969127703246847</v>
+        <v>0.06361923275919301</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1740828569591042</v>
+        <v>0.1670871267542809</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -4260,19 +4260,19 @@
         <v>26084</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17566</v>
+        <v>17949</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35953</v>
+        <v>37204</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1021271739262574</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06877651600653233</v>
+        <v>0.07027667880648121</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1407696546349307</v>
+        <v>0.1456659834424138</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>10970</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5801</v>
+        <v>4246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19062</v>
+        <v>19687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1149211417707078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06076847176773934</v>
+        <v>0.04448302697268674</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1996842975900266</v>
+        <v>0.2062317601694534</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4310,19 +4310,19 @@
         <v>15330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9005</v>
+        <v>8972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25546</v>
+        <v>25097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09584696087195541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05630185617013076</v>
+        <v>0.05609295941627663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.159715461808222</v>
+        <v>0.1569087834728834</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -4331,19 +4331,19 @@
         <v>26301</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17454</v>
+        <v>17514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38605</v>
+        <v>38245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1029761292419133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0683395014331311</v>
+        <v>0.0685745118040828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1511517473852645</v>
+        <v>0.1497430426981983</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>5849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11591</v>
+        <v>11809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06127063678171989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02056827538026182</v>
+        <v>0.0206794704782521</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1214180494528757</v>
+        <v>0.1237107651434369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -4381,19 +4381,19 @@
         <v>18170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11224</v>
+        <v>10998</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27691</v>
+        <v>26774</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1136025447675458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07017148081983139</v>
+        <v>0.06876166989036311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1731259504233235</v>
+        <v>0.1673966205102576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -4402,19 +4402,19 @@
         <v>24019</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16053</v>
+        <v>15995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34573</v>
+        <v>35852</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09404296393246532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06285357995456296</v>
+        <v>0.06262510997692129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1353642704936054</v>
+        <v>0.1403737809999372</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>70757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61538</v>
+        <v>61774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79307</v>
+        <v>79239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7412181252460474</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6446422549962236</v>
+        <v>0.6471158716363157</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8307889513572811</v>
+        <v>0.8300754654445174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -4452,19 +4452,19 @@
         <v>108245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95167</v>
+        <v>95706</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>119890</v>
+        <v>119956</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6767629629234546</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5949981371172912</v>
+        <v>0.5983677615734291</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7495687635829253</v>
+        <v>0.749984005285946</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>171</v>
@@ -4473,19 +4473,19 @@
         <v>179002</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164292</v>
+        <v>163105</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192528</v>
+        <v>193044</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7008537328993639</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6432594422292883</v>
+        <v>0.638613835194317</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7538135588437549</v>
+        <v>0.7558332316351672</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>13697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8001</v>
+        <v>8537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22035</v>
+        <v>21684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1116796763652847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06523534302132346</v>
+        <v>0.06960595290435104</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1796604287761</v>
+        <v>0.1768022692582142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -4598,19 +4598,19 @@
         <v>20452</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12702</v>
+        <v>12384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29494</v>
+        <v>30285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1088650116350192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06761029570058577</v>
+        <v>0.0659165917833216</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1569930144463103</v>
+        <v>0.1612044395541438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -4619,19 +4619,19 @@
         <v>34150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24433</v>
+        <v>24171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47539</v>
+        <v>46882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1099767299373517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07868653645867488</v>
+        <v>0.07784085144306845</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1530952853759762</v>
+        <v>0.1509823466262854</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>4344</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1061</v>
+        <v>1338</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10737</v>
+        <v>10241</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.035416726600894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008653857285916382</v>
+        <v>0.01090594105884363</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08754814727558925</v>
+        <v>0.08350339111509221</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -4669,19 +4669,19 @@
         <v>13996</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7867</v>
+        <v>7762</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24623</v>
+        <v>25270</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07449730282793979</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04187498530516323</v>
+        <v>0.04131809501791592</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1310630394747414</v>
+        <v>0.1345058962657753</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -4690,19 +4690,19 @@
         <v>18340</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11118</v>
+        <v>11188</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>29947</v>
+        <v>29495</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05906150637583107</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03580477775476234</v>
+        <v>0.03603128760997853</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09644194191991907</v>
+        <v>0.09498689820410074</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>10317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5135</v>
+        <v>5042</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17567</v>
+        <v>17295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08411969843058226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04186848129692072</v>
+        <v>0.0411109130123087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1432330642550891</v>
+        <v>0.1410183977386674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4740,19 +4740,19 @@
         <v>23713</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15287</v>
+        <v>15138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35694</v>
+        <v>34882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1262194705287639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08136930664103276</v>
+        <v>0.0805773740127082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1899945449519939</v>
+        <v>0.1856694783672627</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -4761,19 +4761,19 @@
         <v>34030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23269</v>
+        <v>23617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47026</v>
+        <v>47394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1095911713703197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07493711892987946</v>
+        <v>0.07605647901391793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.151445227175323</v>
+        <v>0.1526308898563905</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>94288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84316</v>
+        <v>83882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102765</v>
+        <v>102026</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.768783898603239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6874713761415335</v>
+        <v>0.6839320106563592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8378958659138234</v>
+        <v>0.8318743887570145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>123</v>
@@ -4811,19 +4811,19 @@
         <v>129709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>114224</v>
+        <v>115596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142675</v>
+        <v>142006</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6904182150082772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6079972393112698</v>
+        <v>0.6152988818363953</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7594323312463167</v>
+        <v>0.7558714546572836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -4832,19 +4832,19 @@
         <v>223997</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206657</v>
+        <v>207485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239713</v>
+        <v>240073</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7213705923164975</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6655266437607381</v>
+        <v>0.668194513101893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7719828550077483</v>
+        <v>0.7731407955614372</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>15868</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8902</v>
+        <v>9925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25120</v>
+        <v>25200</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1476166402111771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08281116468863871</v>
+        <v>0.09232939614708344</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2336841170378159</v>
+        <v>0.2344276233333484</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4957,19 +4957,19 @@
         <v>21570</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13337</v>
+        <v>13509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32746</v>
+        <v>31785</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1145369879464933</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07081804116844775</v>
+        <v>0.07173364632059256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1738776277292727</v>
+        <v>0.1687745350900756</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -4978,19 +4978,19 @@
         <v>37438</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27756</v>
+        <v>27058</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51925</v>
+        <v>51646</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1265573518749171</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09382688326154567</v>
+        <v>0.09146867426511117</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1755267669848673</v>
+        <v>0.1745860858139911</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>4013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9322</v>
+        <v>9623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03733162947863794</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00973988551350272</v>
+        <v>0.009887760425509389</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08671641595822334</v>
+        <v>0.08951607051798827</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -5028,19 +5028,19 @@
         <v>17444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10402</v>
+        <v>10041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27552</v>
+        <v>27496</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09262538391988198</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05523280360396946</v>
+        <v>0.05331594107060796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1462967779285744</v>
+        <v>0.1459998013938844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -5049,19 +5049,19 @@
         <v>21457</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13930</v>
+        <v>12699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31461</v>
+        <v>31654</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07253294020147447</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04708901514750839</v>
+        <v>0.04292942089357869</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1063521693462632</v>
+        <v>0.1070050618641987</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>9601</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4352</v>
+        <v>4907</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17035</v>
+        <v>17204</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08931420931111232</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04048369807885813</v>
+        <v>0.04564457543792116</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1584685033512546</v>
+        <v>0.1600450040181008</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -5099,19 +5099,19 @@
         <v>26147</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17314</v>
+        <v>16858</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37547</v>
+        <v>37384</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1388382160289336</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09193633610168804</v>
+        <v>0.08951343466177179</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1993702893801619</v>
+        <v>0.1985082269286855</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -5120,19 +5120,19 @@
         <v>35748</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26027</v>
+        <v>24588</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48652</v>
+        <v>47334</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1208423622884316</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08798156202092183</v>
+        <v>0.08311623027086844</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1644637660262293</v>
+        <v>0.1600069557623621</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>78013</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67492</v>
+        <v>67271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87041</v>
+        <v>87418</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7257375209990726</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6278586237084813</v>
+        <v>0.6258021242539645</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8097216526654084</v>
+        <v>0.8132295935115308</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -5170,19 +5170,19 @@
         <v>123166</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109410</v>
+        <v>108600</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135945</v>
+        <v>137107</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6539994121046911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5809592907240464</v>
+        <v>0.5766577197150963</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7218575604872911</v>
+        <v>0.728023629468324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>175</v>
@@ -5191,19 +5191,19 @@
         <v>201179</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182707</v>
+        <v>185275</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217452</v>
+        <v>218111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6800673456351769</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6176247690558911</v>
+        <v>0.6263057646286035</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7350773854522668</v>
+        <v>0.7373065223220669</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>16467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10104</v>
+        <v>9312</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25153</v>
+        <v>26153</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1294922953147128</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0794541984505632</v>
+        <v>0.07322313143400946</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1977936537323763</v>
+        <v>0.2056520834987728</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -5316,19 +5316,19 @@
         <v>15836</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9237</v>
+        <v>9366</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24394</v>
+        <v>25181</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1053296506320226</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06143632780102446</v>
+        <v>0.06229553013303891</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1622500391205462</v>
+        <v>0.1674865494752485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -5337,19 +5337,19 @@
         <v>32303</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>22723</v>
+        <v>22710</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>43278</v>
+        <v>43285</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1164019610679923</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08188006821108926</v>
+        <v>0.08183219384147719</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1559491443120017</v>
+        <v>0.1559718366665778</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>8218</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3946</v>
+        <v>3979</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14843</v>
+        <v>15038</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06462439761065032</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03102859966096163</v>
+        <v>0.03129252083515464</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1167184456632798</v>
+        <v>0.1182539028028025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -5387,19 +5387,19 @@
         <v>16518</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9584</v>
+        <v>9553</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26824</v>
+        <v>27635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1098683819578393</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06374814959599372</v>
+        <v>0.06353782075712633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1784161550600392</v>
+        <v>0.1838099588143556</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -5408,19 +5408,19 @@
         <v>24737</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16551</v>
+        <v>16507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36278</v>
+        <v>36630</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08913574086532224</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05964007116783868</v>
+        <v>0.05948049390556184</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1307241820317425</v>
+        <v>0.1319930354727975</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>10688</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5978</v>
+        <v>5773</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18308</v>
+        <v>18760</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08404478813840593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04700817234777489</v>
+        <v>0.04539771847644802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1439680637399104</v>
+        <v>0.1475217182867121</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -5458,19 +5458,19 @@
         <v>16950</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10515</v>
+        <v>9408</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25488</v>
+        <v>25747</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1127411185767847</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06994081705615351</v>
+        <v>0.06257542137108532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.169530582589485</v>
+        <v>0.1712516852921211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -5479,19 +5479,19 @@
         <v>27638</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18548</v>
+        <v>19037</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38304</v>
+        <v>40101</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09959128820186228</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06683565482773976</v>
+        <v>0.06859773062015866</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.138024599330595</v>
+        <v>0.1444991047917865</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>91795</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>80991</v>
+        <v>81625</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>101307</v>
+        <v>102149</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.721838518936231</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6368783816440226</v>
+        <v>0.6418617802805242</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7966306537863517</v>
+        <v>0.8032554988199627</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>96</v>
@@ -5529,19 +5529,19 @@
         <v>101042</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>88771</v>
+        <v>89249</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>112467</v>
+        <v>113405</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6720608488333535</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5904377430332042</v>
+        <v>0.5936224199026255</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7480469349788418</v>
+        <v>0.7542851869082654</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>178</v>
@@ -5550,19 +5550,19 @@
         <v>192837</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>175864</v>
+        <v>176284</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>206693</v>
+        <v>207371</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6948710098648232</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6337103216651737</v>
+        <v>0.6352246560989195</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7448005558565757</v>
+        <v>0.7472435177029612</v>
       </c>
     </row>
     <row r="28">
@@ -5654,19 +5654,19 @@
         <v>24714</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15882</v>
+        <v>15891</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35559</v>
+        <v>35790</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1944442250921388</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1249544677434914</v>
+        <v>0.1250322264664731</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2797757091110037</v>
+        <v>0.2815892299765013</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -5675,19 +5675,19 @@
         <v>16119</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9379</v>
+        <v>9400</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23771</v>
+        <v>24247</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1105819550430683</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06434341349659715</v>
+        <v>0.06448784053870094</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1630825797025435</v>
+        <v>0.1663465848635625</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -5696,19 +5696,19 @@
         <v>40832</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30471</v>
+        <v>28710</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54331</v>
+        <v>53178</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.149645081576245</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1116733192295427</v>
+        <v>0.1052162030997233</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1991138479579045</v>
+        <v>0.1948905483783456</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>8168</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4026</v>
+        <v>3940</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16310</v>
+        <v>15662</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06426294216401754</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03167293898997316</v>
+        <v>0.03100022670396016</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1283251433055565</v>
+        <v>0.123226231718627</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -5746,19 +5746,19 @@
         <v>12496</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6774</v>
+        <v>7408</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21258</v>
+        <v>20446</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08573202318325995</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.046474582180416</v>
+        <v>0.05082309707122276</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1458390231589555</v>
+        <v>0.1402702357303121</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -5767,19 +5767,19 @@
         <v>20664</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13620</v>
+        <v>13397</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31091</v>
+        <v>31957</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07573170447122213</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04991648737647304</v>
+        <v>0.04909860225872862</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1139453714421269</v>
+        <v>0.1171180507088663</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>14205</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7952</v>
+        <v>7179</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23960</v>
+        <v>23544</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1117621295989861</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06256747158242594</v>
+        <v>0.05648087554904133</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1885121718068056</v>
+        <v>0.185238973379654</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -5817,19 +5817,19 @@
         <v>12078</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6375</v>
+        <v>6228</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20170</v>
+        <v>20054</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08286323231863213</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04373840932348023</v>
+        <v>0.04272504388791244</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1383736374011011</v>
+        <v>0.1375804615045281</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -5838,19 +5838,19 @@
         <v>26283</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17374</v>
+        <v>17390</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39033</v>
+        <v>37878</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09632436663411392</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06367419453729629</v>
+        <v>0.06373142497088669</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.143052137501905</v>
+        <v>0.1388187632130972</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>80013</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>68358</v>
+        <v>67428</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>91849</v>
+        <v>90428</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6295307031448576</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5378344218690124</v>
+        <v>0.5305189097837502</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7226561641736273</v>
+        <v>0.7114739553222675</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>105</v>
@@ -5888,19 +5888,19 @@
         <v>105069</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>93092</v>
+        <v>94108</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>115125</v>
+        <v>115745</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7208227894550396</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6386572608733535</v>
+        <v>0.645626636567413</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.78981496912849</v>
+        <v>0.794070343554116</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>179</v>
@@ -5909,19 +5909,19 @@
         <v>185082</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>167199</v>
+        <v>167112</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>199520</v>
+        <v>200180</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6782988473184189</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6127596110265315</v>
+        <v>0.6124419899747348</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7312125071637298</v>
+        <v>0.7336307798820688</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>10325</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5194</v>
+        <v>4985</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18368</v>
+        <v>18061</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.095538735248144</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04805576657223246</v>
+        <v>0.04612680378358171</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1699586231008381</v>
+        <v>0.1671164282133009</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -6034,19 +6034,19 @@
         <v>16611</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9898</v>
+        <v>10928</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25526</v>
+        <v>27306</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09202200696991315</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05483697348738213</v>
+        <v>0.06054231719967235</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1414141397514973</v>
+        <v>0.1512735268303468</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>25</v>
@@ -6055,19 +6055,19 @@
         <v>26936</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>17567</v>
+        <v>18230</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>38541</v>
+        <v>38290</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09333904531640215</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06087259879206687</v>
+        <v>0.06316981357896562</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1335532250882044</v>
+        <v>0.1326836171892692</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>4188</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1023</v>
+        <v>1109</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9799</v>
+        <v>9969</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03874741211036765</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009464959382736407</v>
+        <v>0.01025948368990273</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09066391956808775</v>
+        <v>0.09223760480194428</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -6105,19 +6105,19 @@
         <v>8914</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4383</v>
+        <v>4428</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16824</v>
+        <v>16955</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04938066169125965</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02428180948295187</v>
+        <v>0.02453232964940518</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09320512090393</v>
+        <v>0.09392943181066285</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -6126,19 +6126,19 @@
         <v>13101</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7546</v>
+        <v>7481</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21984</v>
+        <v>21855</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04539843834676291</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02614719017778569</v>
+        <v>0.02592184647289635</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07618037790377616</v>
+        <v>0.075732818878904</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>19709</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11973</v>
+        <v>12013</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32247</v>
+        <v>30080</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1823621368417742</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1107795366351615</v>
+        <v>0.1111533163249616</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2983694927183704</v>
+        <v>0.2783201723115588</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -6176,19 +6176,19 @@
         <v>21052</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13162</v>
+        <v>13532</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30199</v>
+        <v>30813</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1166293432485114</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0729164444811664</v>
+        <v>0.07496670761763871</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1672984229691454</v>
+        <v>0.170701490156261</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>34</v>
@@ -6197,19 +6197,19 @@
         <v>40761</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>29291</v>
+        <v>29315</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>54574</v>
+        <v>55518</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1412467156852936</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1015009587385741</v>
+        <v>0.1015814337196264</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1891101291278278</v>
+        <v>0.1923821065207705</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>73854</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63266</v>
+        <v>62472</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>84661</v>
+        <v>82752</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6833517157997142</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.58538240331671</v>
+        <v>0.578038799506484</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.783349941213176</v>
+        <v>0.7656827365308928</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>120</v>
@@ -6247,19 +6247,19 @@
         <v>133930</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>121744</v>
+        <v>121630</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>145065</v>
+        <v>144929</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7419679880903158</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6744569072439602</v>
+        <v>0.6738241891802218</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8036538750866749</v>
+        <v>0.8029000676221034</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>186</v>
@@ -6268,19 +6268,19 @@
         <v>207784</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>190673</v>
+        <v>190178</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>223437</v>
+        <v>223426</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7200158006515414</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6607209512086157</v>
+        <v>0.6590058260419465</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7742559339033318</v>
+        <v>0.774218999374133</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>93880</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>76204</v>
+        <v>75818</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>115515</v>
+        <v>114289</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1258485463053081</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1021535877763712</v>
+        <v>0.1016357524042215</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1548517019268081</v>
+        <v>0.1532070170970906</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>111</v>
@@ -6393,19 +6393,19 @@
         <v>116882</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>97864</v>
+        <v>96308</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>139892</v>
+        <v>138118</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1054795728608847</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.08831630934255731</v>
+        <v>0.08691218235844062</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1262444234353654</v>
+        <v>0.1246433164143768</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>198</v>
@@ -6414,19 +6414,19 @@
         <v>210762</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>183297</v>
+        <v>182810</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>239496</v>
+        <v>240360</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1136748802729339</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.09886174121823742</v>
+        <v>0.09859885352307564</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1291724614268586</v>
+        <v>0.1296386238524817</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>41912</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>31110</v>
+        <v>29442</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>57983</v>
+        <v>57343</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05618353722391976</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04170340966986085</v>
+        <v>0.03946715497200279</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07772846374799602</v>
+        <v>0.07686972253840391</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>87</v>
@@ -6464,19 +6464,19 @@
         <v>95855</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>76393</v>
+        <v>77960</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>115515</v>
+        <v>116099</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08650325837077455</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06894057567607753</v>
+        <v>0.07035439002130728</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1042454778537947</v>
+        <v>0.1047727907674417</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>126</v>
@@ -6485,19 +6485,19 @@
         <v>137766</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>114689</v>
+        <v>117072</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>163155</v>
+        <v>163300</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07430434043688558</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06185762573688984</v>
+        <v>0.06314301068737145</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08799787213023166</v>
+        <v>0.08807629532353253</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>77597</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>61263</v>
+        <v>61094</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>96391</v>
+        <v>98180</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1040205616308657</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08212443095523446</v>
+        <v>0.08189824260337943</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1292144034729702</v>
+        <v>0.1316126294595905</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>122</v>
@@ -6535,19 +6535,19 @@
         <v>131169</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>110979</v>
+        <v>110888</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>155078</v>
+        <v>153989</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1183723316166373</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1001520918696811</v>
+        <v>0.1000702893967536</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1399493711854867</v>
+        <v>0.1389665968742707</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>191</v>
@@ -6556,19 +6556,19 @@
         <v>208765</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>182822</v>
+        <v>184249</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>241581</v>
+        <v>241505</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1125980019843003</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09860516286637339</v>
+        <v>0.09937521703048154</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1302970271741665</v>
+        <v>0.1302562199462111</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>532587</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>506647</v>
+        <v>505455</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>558081</v>
+        <v>558146</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7139473548399065</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6791745455230717</v>
+        <v>0.6775765454995287</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7481230671555547</v>
+        <v>0.7482099818618889</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>713</v>
@@ -6606,19 +6606,19 @@
         <v>764198</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>732088</v>
+        <v>734223</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>796263</v>
+        <v>794961</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6896448371517035</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6606682229672695</v>
+        <v>0.6625941686766108</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7185821072132126</v>
+        <v>0.717407202056275</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1202</v>
@@ -6627,19 +6627,19 @@
         <v>1296784</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1255242</v>
+        <v>1254054</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1338711</v>
+        <v>1338301</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6994227773058802</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.677016857135746</v>
+        <v>0.6763762286139544</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7220357851942635</v>
+        <v>0.7218145764044864</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>5586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2110</v>
+        <v>2041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12977</v>
+        <v>11777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08715137710980761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03291537107356025</v>
+        <v>0.03184073525501412</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2024676903780689</v>
+        <v>0.1837423579060503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -6995,19 +6995,19 @@
         <v>11801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6708</v>
+        <v>5941</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19507</v>
+        <v>18610</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1290477240994842</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0733493568150814</v>
+        <v>0.06496878771806318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2133150606718328</v>
+        <v>0.2035048440678165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -7016,19 +7016,19 @@
         <v>17387</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10731</v>
+        <v>11230</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25296</v>
+        <v>26256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1117838760446332</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06899198448350342</v>
+        <v>0.07219632588741312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.162633900555947</v>
+        <v>0.1688057244517616</v>
       </c>
     </row>
     <row r="5">
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6615</v>
+        <v>5853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03048939393800157</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.103204336925413</v>
+        <v>0.09131466030431853</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -7066,19 +7066,19 @@
         <v>6757</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2841</v>
+        <v>2913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12625</v>
+        <v>13026</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07388704665543847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03107029367021506</v>
+        <v>0.03185838545464322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1380604926112427</v>
+        <v>0.1424358580538452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -7087,19 +7087,19 @@
         <v>8711</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3938</v>
+        <v>4076</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15840</v>
+        <v>15843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05600456915362598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02532090155943734</v>
+        <v>0.02620590837433584</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1018392933398388</v>
+        <v>0.1018552042444493</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>6320</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2149</v>
+        <v>2987</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11770</v>
+        <v>12204</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09860145618857097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03353546638130468</v>
+        <v>0.04660883170511289</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1836327517942796</v>
+        <v>0.1904126957091469</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -7137,19 +7137,19 @@
         <v>4937</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1926</v>
+        <v>1898</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11554</v>
+        <v>11397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05399113295903445</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02105811740673828</v>
+        <v>0.02075724661952732</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1263464725303413</v>
+        <v>0.1246248076006278</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -7158,19 +7158,19 @@
         <v>11257</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5290</v>
+        <v>5973</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18392</v>
+        <v>18415</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07237330460999661</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03401070958895511</v>
+        <v>0.03840399977117735</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1182442645851681</v>
+        <v>0.1183898497285852</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>50233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41593</v>
+        <v>42981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55809</v>
+        <v>55671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7837577727636199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6489503562340091</v>
+        <v>0.6705988025763954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8707473246186631</v>
+        <v>0.8686010626553512</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -7208,19 +7208,19 @@
         <v>67953</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58996</v>
+        <v>59446</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75542</v>
+        <v>74981</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7430740962860428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6451207803681556</v>
+        <v>0.6500501166808467</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8260562175647532</v>
+        <v>0.8199243761863919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -7229,19 +7229,19 @@
         <v>118187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107687</v>
+        <v>107518</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128751</v>
+        <v>128056</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7598382501917441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6923366261097988</v>
+        <v>0.6912495688679933</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8277598574467554</v>
+        <v>0.8232870069439241</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>5069</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1928</v>
+        <v>1823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10617</v>
+        <v>10531</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05874549120681034</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02233978986104023</v>
+        <v>0.02112847632059488</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1230418624122369</v>
+        <v>0.1220480296608251</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -7354,19 +7354,19 @@
         <v>16656</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10272</v>
+        <v>9884</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26135</v>
+        <v>25319</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1116252830137901</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06884241360032139</v>
+        <v>0.06624201226899057</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1751468868960693</v>
+        <v>0.1696795445383366</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -7375,19 +7375,19 @@
         <v>21725</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13996</v>
+        <v>14232</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31499</v>
+        <v>30582</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09225086971258514</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05943133059051497</v>
+        <v>0.06043447984389434</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.133754041959674</v>
+        <v>0.1298585516705696</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>8079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2888</v>
+        <v>3759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15579</v>
+        <v>15962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09363277400674008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03346554802119554</v>
+        <v>0.04356992350213887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1805599355443998</v>
+        <v>0.1849901989496691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -7425,19 +7425,19 @@
         <v>14029</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8252</v>
+        <v>7504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23310</v>
+        <v>22332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09402067859887349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05529963802653294</v>
+        <v>0.05029028748118681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1562174653826193</v>
+        <v>0.1496633214031603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -7446,19 +7446,19 @@
         <v>22108</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14327</v>
+        <v>14369</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32769</v>
+        <v>32818</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09387855580238327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06083551526963571</v>
+        <v>0.06101529253912745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1391453087300094</v>
+        <v>0.1393563458383632</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>5967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2058</v>
+        <v>2075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11810</v>
+        <v>12065</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06915188917254567</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02384660038869825</v>
+        <v>0.02404433734924403</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.136874297606261</v>
+        <v>0.1398247159671749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -7496,19 +7496,19 @@
         <v>15123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9233</v>
+        <v>9257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23096</v>
+        <v>23788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.101348346859129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06187568787649871</v>
+        <v>0.06203497068356812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1547808131698963</v>
+        <v>0.1594223438722485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -7517,19 +7517,19 @@
         <v>21089</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13933</v>
+        <v>13547</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31154</v>
+        <v>30309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08955201679165153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05916207378055726</v>
+        <v>0.05752289001987618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1322872921364219</v>
+        <v>0.1286999312619263</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>67169</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58098</v>
+        <v>59074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74130</v>
+        <v>74588</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7784698456139039</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6733325439444027</v>
+        <v>0.684651333088117</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.859142083434649</v>
+        <v>0.8644442146708934</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -7567,19 +7567,19 @@
         <v>103408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92193</v>
+        <v>93085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114136</v>
+        <v>114979</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6930056915282073</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6178464052780716</v>
+        <v>0.6238301364505043</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7649042093098277</v>
+        <v>0.7705549267510395</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>169</v>
@@ -7588,19 +7588,19 @@
         <v>170577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157653</v>
+        <v>157858</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>183101</v>
+        <v>183435</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.72431855769338</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6694396508905998</v>
+        <v>0.6703080377984872</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7775002039218069</v>
+        <v>0.7789187011517503</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>15279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8398</v>
+        <v>8543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25461</v>
+        <v>25372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1081769825293509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05945767100981571</v>
+        <v>0.06048240323988669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1802677659340528</v>
+        <v>0.1796324801416491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -7713,19 +7713,19 @@
         <v>22956</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14391</v>
+        <v>15493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32686</v>
+        <v>33911</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1395662276908268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08749614957125593</v>
+        <v>0.09419700960299307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1987228439383365</v>
+        <v>0.2061715630478636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -7734,19 +7734,19 @@
         <v>38235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26591</v>
+        <v>26586</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51052</v>
+        <v>52911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1250644897017968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08697737531898564</v>
+        <v>0.08696055481884153</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1669904135404139</v>
+        <v>0.1730698222385582</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>6719</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2829</v>
+        <v>2800</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13531</v>
+        <v>13098</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04757266262740766</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0200319938878749</v>
+        <v>0.01982607518388148</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09580106578682474</v>
+        <v>0.09273545368887334</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -7784,19 +7784,19 @@
         <v>14169</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8081</v>
+        <v>7782</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21890</v>
+        <v>22353</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08614506246473141</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.049128751687296</v>
+        <v>0.04731315461402304</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1330894272328906</v>
+        <v>0.1359025117220962</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -7805,19 +7805,19 @@
         <v>20888</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13822</v>
+        <v>13569</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30893</v>
+        <v>31069</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06832472836075992</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04521181581497159</v>
+        <v>0.04438380233691062</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1010500225814345</v>
+        <v>0.1016254695935258</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>15208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8472</v>
+        <v>8559</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24481</v>
+        <v>25428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.10767667886668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05997880631633352</v>
+        <v>0.06060073158087965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1733264102371017</v>
+        <v>0.1800280294504982</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -7855,19 +7855,19 @@
         <v>26084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18108</v>
+        <v>17443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35731</v>
+        <v>35585</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1585854030116996</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1100922316904251</v>
+        <v>0.1060516421597343</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2172390995039006</v>
+        <v>0.2163509848127262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -7876,19 +7876,19 @@
         <v>41292</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30167</v>
+        <v>29554</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54666</v>
+        <v>54529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1350657237359153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09867439474284719</v>
+        <v>0.09667102027841271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1788100433377461</v>
+        <v>0.1783634312607775</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>104035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92289</v>
+        <v>91292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114653</v>
+        <v>114269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7365736759765614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6534134183127565</v>
+        <v>0.6463535072272502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8117480862887638</v>
+        <v>0.8090271031299575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -7926,19 +7926,19 @@
         <v>101270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88082</v>
+        <v>88392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112581</v>
+        <v>113046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6157033068327421</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5355187662201829</v>
+        <v>0.5374039032298282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6844683576119692</v>
+        <v>0.6872996689014979</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>200</v>
@@ -7947,19 +7947,19 @@
         <v>205305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187520</v>
+        <v>186943</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>221376</v>
+        <v>221665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.671545058201528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6133699659017826</v>
+        <v>0.6114830253745728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.724112608306353</v>
+        <v>0.7250566162842151</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>12540</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7310</v>
+        <v>6749</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21334</v>
+        <v>21714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07795332145376783</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04544073627109181</v>
+        <v>0.04195346991608467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1326170715135344</v>
+        <v>0.134979685249818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -8072,19 +8072,19 @@
         <v>14791</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8489</v>
+        <v>8436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23825</v>
+        <v>24257</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08603904412598458</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04937917458254402</v>
+        <v>0.04906939130984245</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1385864599823091</v>
+        <v>0.1410994538142942</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -8093,19 +8093,19 @@
         <v>27331</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18023</v>
+        <v>18099</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38332</v>
+        <v>39120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08213037217972083</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0541603950713363</v>
+        <v>0.05438684836478634</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1151865097117929</v>
+        <v>0.1175561750156137</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>12525</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6533</v>
+        <v>6059</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21990</v>
+        <v>21201</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07786065314234301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04060840531950768</v>
+        <v>0.03766278876359441</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1366945483644386</v>
+        <v>0.1317907849121627</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -8143,19 +8143,19 @@
         <v>26362</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17927</v>
+        <v>17980</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37311</v>
+        <v>37293</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1533475271701028</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1042812518950531</v>
+        <v>0.1045879733437504</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2170348430048477</v>
+        <v>0.2169322572499864</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -8164,19 +8164,19 @@
         <v>38888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28761</v>
+        <v>28244</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52646</v>
+        <v>52264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1168568585206226</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08642740803013414</v>
+        <v>0.08487205058100156</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1581998089766294</v>
+        <v>0.1570542096088231</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>17896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11505</v>
+        <v>10718</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27377</v>
+        <v>26853</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1112479961773825</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07151991874173369</v>
+        <v>0.06662445184028019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1701815019370757</v>
+        <v>0.166928283903375</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -8214,19 +8214,19 @@
         <v>17699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10527</v>
+        <v>10532</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27225</v>
+        <v>27438</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1029520192901547</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0612344147029408</v>
+        <v>0.06126499955753607</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1583671005400623</v>
+        <v>0.1596050138502398</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -8235,19 +8235,19 @@
         <v>35595</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24664</v>
+        <v>25125</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46990</v>
+        <v>49613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1069623289978299</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07411522577132269</v>
+        <v>0.07550017687034896</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1412055759884367</v>
+        <v>0.1490871887847127</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>117906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106007</v>
+        <v>105440</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>128609</v>
+        <v>129110</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7329380292265066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6589699783023254</v>
+        <v>0.6554510512699163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7994713614299767</v>
+        <v>0.8025894829353654</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -8285,19 +8285,19 @@
         <v>113061</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98525</v>
+        <v>99235</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126015</v>
+        <v>124520</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6576614094137579</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5731093893636047</v>
+        <v>0.5772384504393882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7330151046015208</v>
+        <v>0.7243212032646452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>209</v>
@@ -8306,19 +8306,19 @@
         <v>230966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>212009</v>
+        <v>211627</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248606</v>
+        <v>247855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6940504403018267</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6370853977818471</v>
+        <v>0.6359352148459874</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7470585745661419</v>
+        <v>0.7448010484661615</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>20095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12077</v>
+        <v>12113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31599</v>
+        <v>30786</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1447605180246721</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08700209304165948</v>
+        <v>0.08726387103459327</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2276337862447901</v>
+        <v>0.2217769705069709</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -8431,19 +8431,19 @@
         <v>28859</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18603</v>
+        <v>18477</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41157</v>
+        <v>40445</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1551710226553915</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1000236983638888</v>
+        <v>0.0993497159920228</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2212906660601965</v>
+        <v>0.2174658459088843</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -8452,19 +8452,19 @@
         <v>48954</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36101</v>
+        <v>36157</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>64603</v>
+        <v>65475</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1507217374176215</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.111148464146295</v>
+        <v>0.1113205877737905</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1989024355265376</v>
+        <v>0.2015871130672328</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>5557</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12360</v>
+        <v>12728</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04002877029009458</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01563173381204947</v>
+        <v>0.01570457852605717</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08904300466588708</v>
+        <v>0.09169440790276391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -8502,19 +8502,19 @@
         <v>16643</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9909</v>
+        <v>9842</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25914</v>
+        <v>25242</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08948515318155253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05327850086096354</v>
+        <v>0.05291982934106874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1393324939302428</v>
+        <v>0.1357197333213142</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -8523,19 +8523,19 @@
         <v>22199</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14311</v>
+        <v>14368</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32344</v>
+        <v>33066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06834827633284037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04406289229748542</v>
+        <v>0.0442378198308855</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09958251582566374</v>
+        <v>0.1018058357643674</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>28730</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18735</v>
+        <v>19935</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39210</v>
+        <v>39724</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2069722418846448</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1349680840315272</v>
+        <v>0.1436137309530554</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2824646397460617</v>
+        <v>0.2861665182337456</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -8573,19 +8573,19 @@
         <v>24654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16406</v>
+        <v>16708</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36067</v>
+        <v>35929</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1325622867587405</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08821237077286621</v>
+        <v>0.08983644443255502</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1939258234591107</v>
+        <v>0.1931827873665325</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>48</v>
@@ -8594,19 +8594,19 @@
         <v>53385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39367</v>
+        <v>39546</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>67418</v>
+        <v>67806</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1643639262208551</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1212050028812493</v>
+        <v>0.1217553812185365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2075708616638947</v>
+        <v>0.2087655077756105</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>84431</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>71274</v>
+        <v>72875</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>96123</v>
+        <v>98185</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6082384698005886</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5134528247918367</v>
+        <v>0.5249884295064653</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6924658577480871</v>
+        <v>0.7073159742038684</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>102</v>
@@ -8644,19 +8644,19 @@
         <v>115827</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>101070</v>
+        <v>101602</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>129961</v>
+        <v>129502</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6227815374043154</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5434312973196771</v>
+        <v>0.5462956814560139</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6987727489089327</v>
+        <v>0.6963072631585213</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>179</v>
@@ -8665,19 +8665,19 @@
         <v>200259</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>182574</v>
+        <v>180726</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>219009</v>
+        <v>218860</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6165660600286831</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5621175210029485</v>
+        <v>0.5564289606537629</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6742965097904783</v>
+        <v>0.6738375974669862</v>
       </c>
     </row>
     <row r="28">
@@ -8769,19 +8769,19 @@
         <v>17734</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10972</v>
+        <v>10640</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26669</v>
+        <v>26488</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1469329022715608</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09090911741156028</v>
+        <v>0.08815725252408634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2209633219819222</v>
+        <v>0.219460535936635</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -8790,19 +8790,19 @@
         <v>22522</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14686</v>
+        <v>14690</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33310</v>
+        <v>32439</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1268983005456285</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08274599168115529</v>
+        <v>0.0827715516237469</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1876841058939885</v>
+        <v>0.1827798518698122</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -8811,19 +8811,19 @@
         <v>40255</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28931</v>
+        <v>29197</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52059</v>
+        <v>52345</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1350079661049141</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09702972137930187</v>
+        <v>0.09791887946733133</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1745944756871658</v>
+        <v>0.175552804334859</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>8404</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3889</v>
+        <v>4013</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16081</v>
+        <v>16807</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06963099433667443</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0322233915447743</v>
+        <v>0.03324679232303367</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1332391181061817</v>
+        <v>0.1392557747697974</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -8861,19 +8861,19 @@
         <v>15664</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8933</v>
+        <v>8439</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24983</v>
+        <v>25054</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08826146437258157</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05033524490968574</v>
+        <v>0.04754877688388047</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1407662133127208</v>
+        <v>0.1411679757835885</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -8882,19 +8882,19 @@
         <v>24068</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15320</v>
+        <v>16097</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35692</v>
+        <v>36131</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08072016740694557</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05137999367005754</v>
+        <v>0.0539859634086208</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1197046412091465</v>
+        <v>0.1211740624918959</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>17798</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10941</v>
+        <v>10418</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26785</v>
+        <v>26772</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1474662662553612</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09064653024389785</v>
+        <v>0.08631480582193596</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2219267828579805</v>
+        <v>0.221816568215344</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -8932,19 +8932,19 @@
         <v>26413</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18124</v>
+        <v>18386</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37255</v>
+        <v>38637</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1488245060025898</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.102121823617876</v>
+        <v>0.1035974930434549</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2099134384876967</v>
+        <v>0.2177029994911568</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>40</v>
@@ -8953,19 +8953,19 @@
         <v>44211</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32468</v>
+        <v>32713</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57526</v>
+        <v>57798</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1482747136857754</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1088915989835016</v>
+        <v>0.1097120481377409</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1929281317957693</v>
+        <v>0.1938411129814954</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>76758</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65492</v>
+        <v>64625</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>86633</v>
+        <v>87270</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6359698371364035</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5426228681974413</v>
+        <v>0.5354406957624546</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.717780779277875</v>
+        <v>0.7230593596117273</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>105</v>
@@ -9003,19 +9003,19 @@
         <v>112878</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>98279</v>
+        <v>99353</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>124410</v>
+        <v>126421</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6360157290792002</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5537534530724063</v>
+        <v>0.559806750840989</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7009940816796204</v>
+        <v>0.7123205732795826</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>182</v>
@@ -9024,19 +9024,19 @@
         <v>189636</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>172643</v>
+        <v>172083</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>205968</v>
+        <v>205908</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6359971528023649</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5790063647505072</v>
+        <v>0.57712797745443</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6907718641009275</v>
+        <v>0.6905704432532441</v>
       </c>
     </row>
     <row r="33">
@@ -9128,19 +9128,19 @@
         <v>12115</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6617</v>
+        <v>6576</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19481</v>
+        <v>19310</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1161934791864269</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06346338361718204</v>
+        <v>0.06306686198357445</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1868436266760691</v>
+        <v>0.1852009544265678</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -9149,19 +9149,19 @@
         <v>21288</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13020</v>
+        <v>12642</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>34138</v>
+        <v>32969</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.12776449286669</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07814200839702473</v>
+        <v>0.07587184165108075</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2048882624294606</v>
+        <v>0.1978684910926738</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -9170,19 +9170,19 @@
         <v>33403</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23326</v>
+        <v>22965</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46141</v>
+        <v>46699</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1233107498300606</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08611173592683642</v>
+        <v>0.08478006662290712</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1703356079323708</v>
+        <v>0.1723951232351677</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>5964</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2510</v>
+        <v>2369</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12932</v>
+        <v>12634</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05719697357605373</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02406889185337223</v>
+        <v>0.02272138982721045</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1240331368521835</v>
+        <v>0.1211698205716092</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -9220,19 +9220,19 @@
         <v>12913</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6700</v>
+        <v>6613</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22451</v>
+        <v>22298</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0775003159748638</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04020904872369527</v>
+        <v>0.03968732364734028</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1347426380723217</v>
+        <v>0.1338277967745881</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>16</v>
@@ -9241,19 +9241,19 @@
         <v>18877</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11536</v>
+        <v>10733</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>31085</v>
+        <v>28985</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06968545443138088</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04258671432861211</v>
+        <v>0.03962310130639637</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1147529980969661</v>
+        <v>0.1070002565807859</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>12362</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7235</v>
+        <v>6786</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19481</v>
+        <v>18978</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1185647364983782</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06939010303234136</v>
+        <v>0.06508791283221657</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1868418584770538</v>
+        <v>0.1820234111304964</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -9291,19 +9291,19 @@
         <v>9024</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3855</v>
+        <v>3720</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16893</v>
+        <v>18004</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05416154344999904</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02313686370152494</v>
+        <v>0.02232350716447124</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.101385616628316</v>
+        <v>0.1080563943004626</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -9312,19 +9312,19 @@
         <v>21386</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>13562</v>
+        <v>12990</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>33370</v>
+        <v>30550</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07895066569130955</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05006516760169894</v>
+        <v>0.04795556419374138</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1231897426612388</v>
+        <v>0.1127780552043642</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>73824</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64418</v>
+        <v>63503</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>82941</v>
+        <v>82184</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7080448107391412</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6178361680704464</v>
+        <v>0.6090591139016648</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7954899670849427</v>
+        <v>0.7882317119953816</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>92</v>
@@ -9362,19 +9362,19 @@
         <v>123394</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>109070</v>
+        <v>108151</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>134139</v>
+        <v>135722</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7405736477084471</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6546093548713193</v>
+        <v>0.6490910643252864</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8050622656203456</v>
+        <v>0.8145625502790962</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>180</v>
@@ -9383,19 +9383,19 @@
         <v>197217</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>180235</v>
+        <v>181174</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>212039</v>
+        <v>210882</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7280531300472489</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6653627200996329</v>
+        <v>0.6688287789196996</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7827698794471587</v>
+        <v>0.7784977775959678</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>88417</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1083203416077474</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>126</v>
@@ -9508,19 +9508,19 @@
         <v>138873</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>117543</v>
+        <v>117960</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>162193</v>
+        <v>163059</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1254346645454669</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1061683703414005</v>
+        <v>0.1065449827404733</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1464981455830135</v>
+        <v>0.1472796919456691</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>207</v>
@@ -9529,19 +9529,19 @@
         <v>227291</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>198451</v>
+        <v>201196</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>258400</v>
+        <v>260489</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1181716166053353</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1031775363106725</v>
+        <v>0.1046047621046136</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1343456727349309</v>
+        <v>0.1354318712570747</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>49202</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35808</v>
+        <v>36181</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65096</v>
+        <v>64891</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06027732204917589</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04386902944287006</v>
+        <v>0.04432562658396894</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07974886286276116</v>
+        <v>0.07949769866537168</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>97</v>
@@ -9579,19 +9579,19 @@
         <v>106538</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>86373</v>
+        <v>86349</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>128678</v>
+        <v>128819</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0962283537466475</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07801466830806709</v>
+        <v>0.07799313513056695</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1162257479583501</v>
+        <v>0.1163537858909601</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>143</v>
@@ -9600,19 +9600,19 @@
         <v>155740</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>131440</v>
+        <v>132748</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>182866</v>
+        <v>182111</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08097130456824039</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06833769408060472</v>
+        <v>0.06901735929021682</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09507452726473292</v>
+        <v>0.09468224087948914</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>104282</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>86262</v>
+        <v>86906</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>125751</v>
+        <v>124932</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1277560312087184</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1056803256042757</v>
+        <v>0.1064689697190167</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1540585092481126</v>
+        <v>0.1530547127426224</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>118</v>
@@ -9650,19 +9650,19 @@
         <v>123935</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>103744</v>
+        <v>104713</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>147282</v>
+        <v>146178</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1119416015913964</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09370512507816255</v>
+        <v>0.09457967652587546</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1330297188258166</v>
+        <v>0.132032978542052</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>216</v>
@@ -9671,19 +9671,19 @@
         <v>228216</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>202365</v>
+        <v>197204</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>257224</v>
+        <v>258001</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1186529953680848</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1052126094979319</v>
+        <v>0.1025292668117653</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1337343664240627</v>
+        <v>0.1341385296886794</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>574357</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>546604</v>
+        <v>546342</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>601352</v>
+        <v>602214</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7036463051343583</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6696461754605998</v>
+        <v>0.6693252415587562</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.736717950361402</v>
+        <v>0.7377742641846726</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>684</v>
@@ -9721,19 +9721,19 @@
         <v>737790</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>703944</v>
+        <v>704536</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>769413</v>
+        <v>770080</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6663953801164892</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6358245279253524</v>
+        <v>0.6363592266454505</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6949576191541361</v>
+        <v>0.6955608245190246</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1238</v>
@@ -9742,19 +9742,19 @@
         <v>1312147</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1268142</v>
+        <v>1269311</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1353665</v>
+        <v>1353768</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6822040834583395</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6593251175770748</v>
+        <v>0.6599330925217562</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7037895631277529</v>
+        <v>0.7038431306374899</v>
       </c>
     </row>
     <row r="43">
@@ -10102,19 +10102,19 @@
         <v>10432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4123</v>
+        <v>4185</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20824</v>
+        <v>21193</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1633671292577709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06456433065229883</v>
+        <v>0.06552864531636739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3260858663854412</v>
+        <v>0.3318734694692184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -10123,19 +10123,19 @@
         <v>10432</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4018</v>
+        <v>4062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20854</v>
+        <v>19966</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1155977850476339</v>
+        <v>0.1155977850476338</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04451952130040113</v>
+        <v>0.04501323408013071</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2310742916001936</v>
+        <v>0.2212399177506591</v>
       </c>
     </row>
     <row r="5">
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13111</v>
+        <v>13542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1806114436986201</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4968439335097437</v>
+        <v>0.5131576640436203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -10173,19 +10173,19 @@
         <v>12584</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5332</v>
+        <v>5668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22571</v>
+        <v>23832</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1970658716088288</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08349413544864535</v>
+        <v>0.08875041317926882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3534581439517475</v>
+        <v>0.3731925198706037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -10194,19 +10194,19 @@
         <v>17351</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8835</v>
+        <v>8105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30676</v>
+        <v>29652</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1922545167530829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.097901792585602</v>
+        <v>0.08981142158938081</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3399034466857079</v>
+        <v>0.328558043702857</v>
       </c>
     </row>
     <row r="6">
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14992</v>
+        <v>16628</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1940735966584752</v>
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5681025490134626</v>
+        <v>0.6300973513987261</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -10244,19 +10244,19 @@
         <v>8043</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2820</v>
+        <v>3096</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16969</v>
+        <v>17673</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1259548424172661</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04415274861306293</v>
+        <v>0.04847600420849215</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2657205395038883</v>
+        <v>0.2767559468144666</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -10265,19 +10265,19 @@
         <v>13165</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5451</v>
+        <v>5560</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26811</v>
+        <v>27271</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1458730979029196</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06039893844126514</v>
+        <v>0.06160858954884151</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2970767267408064</v>
+        <v>0.3021733820556712</v>
       </c>
     </row>
     <row r="7">
@@ -10294,19 +10294,19 @@
         <v>16501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7933</v>
+        <v>7629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23433</v>
+        <v>23440</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6253149596429046</v>
+        <v>0.6253149596429048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3006187148491321</v>
+        <v>0.2891068816723458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8880017270019637</v>
+        <v>0.8882436097533029</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -10315,19 +10315,19 @@
         <v>32799</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22022</v>
+        <v>21676</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42940</v>
+        <v>42910</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5136121567161341</v>
+        <v>0.513612156716134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3448516027703536</v>
+        <v>0.3394283443590931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6724249644151712</v>
+        <v>0.6719447665582285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -10336,19 +10336,19 @@
         <v>49300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34962</v>
+        <v>35087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62367</v>
+        <v>62236</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5462746002963637</v>
+        <v>0.5462746002963634</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3874020770026631</v>
+        <v>0.388788629092124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6910593629670918</v>
+        <v>0.6896060911223804</v>
       </c>
     </row>
     <row r="8">
@@ -10440,19 +10440,19 @@
         <v>7317</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1641</v>
+        <v>1909</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17181</v>
+        <v>16136</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08949864067547729</v>
+        <v>0.08949864067547732</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02007625806037382</v>
+        <v>0.02335336620942851</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2101544494743579</v>
+        <v>0.1973720170651504</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -10461,19 +10461,19 @@
         <v>15062</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8321</v>
+        <v>8233</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23468</v>
+        <v>23951</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1433203924501116</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07917248024611258</v>
+        <v>0.07834315942270667</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2233041981396875</v>
+        <v>0.22790272999819</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -10482,19 +10482,19 @@
         <v>22379</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13970</v>
+        <v>12527</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36246</v>
+        <v>34126</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.119771383091643</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07476953609411434</v>
+        <v>0.06704536875837629</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1939878765104625</v>
+        <v>0.1826417925895618</v>
       </c>
     </row>
     <row r="10">
@@ -10511,19 +10511,19 @@
         <v>15031</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7599</v>
+        <v>7628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23892</v>
+        <v>24636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1838615483632171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09295235584247277</v>
+        <v>0.09331213652879346</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.292248392875617</v>
+        <v>0.3013463795136707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -10532,19 +10532,19 @@
         <v>23775</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16044</v>
+        <v>15977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34825</v>
+        <v>33167</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.226229735412795</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.152668032977665</v>
+        <v>0.1520273408826374</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3313746311555603</v>
+        <v>0.3155906492149369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -10553,19 +10553,19 @@
         <v>38806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28088</v>
+        <v>26918</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52962</v>
+        <v>53154</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2076920847337608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1503293129836086</v>
+        <v>0.1440673344217929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2834539720594624</v>
+        <v>0.2844808956340542</v>
       </c>
     </row>
     <row r="11">
@@ -10582,19 +10582,19 @@
         <v>18251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10113</v>
+        <v>9055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30096</v>
+        <v>28899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2232536444326687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1237072960716359</v>
+        <v>0.1107587041782731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3681363713448632</v>
+        <v>0.3535015756457236</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -10603,19 +10603,19 @@
         <v>24249</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15579</v>
+        <v>15723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34781</v>
+        <v>33837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2307361804572185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1482378196275568</v>
+        <v>0.1496052214251018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.330951085609845</v>
+        <v>0.3219720013086041</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -10624,19 +10624,19 @@
         <v>42500</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31292</v>
+        <v>30637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56142</v>
+        <v>57171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2274622938768444</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1674747572253911</v>
+        <v>0.1639670744525185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3004744479575214</v>
+        <v>0.305976816091952</v>
       </c>
     </row>
     <row r="12">
@@ -10653,19 +10653,19 @@
         <v>41153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29418</v>
+        <v>30246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52364</v>
+        <v>53611</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5033861665286369</v>
+        <v>0.503386166528637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3598465292160819</v>
+        <v>0.3699716276732521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.640528005331655</v>
+        <v>0.6557741442215221</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -10674,19 +10674,19 @@
         <v>42008</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31166</v>
+        <v>32521</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52048</v>
+        <v>51951</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3997136916798749</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.296556084182621</v>
+        <v>0.3094426777088625</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4952536822362407</v>
+        <v>0.4943268760968903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -10695,19 +10695,19 @@
         <v>83160</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67502</v>
+        <v>68000</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>99999</v>
+        <v>99884</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4450742382977518</v>
+        <v>0.4450742382977519</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3612721734948741</v>
+        <v>0.3639337806027138</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5351942482118892</v>
+        <v>0.5345768608357285</v>
       </c>
     </row>
     <row r="13">
@@ -10799,19 +10799,19 @@
         <v>11857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6440</v>
+        <v>6062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20747</v>
+        <v>20544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1360324785141517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07388411341635787</v>
+        <v>0.06955371391809417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2380385895591705</v>
+        <v>0.2357037925455857</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -10820,19 +10820,19 @@
         <v>24811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17922</v>
+        <v>17905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33193</v>
+        <v>32816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1953315632086313</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1410950439933837</v>
+        <v>0.1409587751878965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2613210874092844</v>
+        <v>0.2583502573869608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -10841,19 +10841,19 @@
         <v>36668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27715</v>
+        <v>27153</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48078</v>
+        <v>47912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1711999796023414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1294008654108036</v>
+        <v>0.1267737589710614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2244736675228645</v>
+        <v>0.223700900415153</v>
       </c>
     </row>
     <row r="15">
@@ -10870,19 +10870,19 @@
         <v>28071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19539</v>
+        <v>18772</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38479</v>
+        <v>37796</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3220627858370569</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2241731595414271</v>
+        <v>0.215376154925308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4414699171831269</v>
+        <v>0.4336399387439803</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -10891,19 +10891,19 @@
         <v>51918</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42664</v>
+        <v>43873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62061</v>
+        <v>62817</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4087337077742647</v>
+        <v>0.4087337077742646</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3358792579040425</v>
+        <v>0.3454025638550227</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4885869687584256</v>
+        <v>0.4945374198148276</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>93</v>
@@ -10912,19 +10912,19 @@
         <v>79989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>67790</v>
+        <v>66752</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>94792</v>
+        <v>93856</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3734632375850905</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3165083094011463</v>
+        <v>0.3116618214755505</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4425811934275952</v>
+        <v>0.4382104187288939</v>
       </c>
     </row>
     <row r="16">
@@ -10941,19 +10941,19 @@
         <v>13165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6633</v>
+        <v>6728</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22904</v>
+        <v>23396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1510485075777159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07610578147638956</v>
+        <v>0.07718827379556935</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2627843684489451</v>
+        <v>0.268422858509779</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -10962,19 +10962,19 @@
         <v>11629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7024</v>
+        <v>7105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18252</v>
+        <v>17985</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09155051823334354</v>
+        <v>0.09155051823334351</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05529737480481533</v>
+        <v>0.05593641791141055</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1436896957150738</v>
+        <v>0.1415920151425707</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -10983,19 +10983,19 @@
         <v>24794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16697</v>
+        <v>16532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36323</v>
+        <v>35600</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.115763045486796</v>
+        <v>0.1157630454867959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07795537721742281</v>
+        <v>0.07718811252028741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1695897156509994</v>
+        <v>0.166215079213065</v>
       </c>
     </row>
     <row r="17">
@@ -11012,19 +11012,19 @@
         <v>34067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23713</v>
+        <v>24638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44597</v>
+        <v>44321</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3908562280710755</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2720584915435619</v>
+        <v>0.2826726246848112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5116722274064638</v>
+        <v>0.5085000006798742</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -11033,19 +11033,19 @@
         <v>38663</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30563</v>
+        <v>30463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47312</v>
+        <v>47572</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3043842107837604</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2406128126774243</v>
+        <v>0.2398227553948962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3724777257206818</v>
+        <v>0.3745225395066807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -11054,19 +11054,19 @@
         <v>72730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59208</v>
+        <v>59322</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86125</v>
+        <v>86075</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3395737373257722</v>
+        <v>0.3395737373257721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2764375026104718</v>
+        <v>0.2769702567040969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4021145750641092</v>
+        <v>0.4018787799997063</v>
       </c>
     </row>
     <row r="18">
@@ -11158,19 +11158,19 @@
         <v>28293</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19176</v>
+        <v>18545</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39833</v>
+        <v>37956</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2155083737407975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1460596834580165</v>
+        <v>0.1412523611004384</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3034016417205241</v>
+        <v>0.2891059929241906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -11179,19 +11179,19 @@
         <v>43612</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34582</v>
+        <v>34939</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53614</v>
+        <v>54947</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2535213852363067</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2010290500127646</v>
+        <v>0.2031079027039078</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3116703682404954</v>
+        <v>0.3194176303779843</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -11200,19 +11200,19 @@
         <v>71905</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58599</v>
+        <v>59349</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>85883</v>
+        <v>85250</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2370675632528912</v>
+        <v>0.2370675632528913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1932003013770729</v>
+        <v>0.1956701276317762</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2831542710296236</v>
+        <v>0.2810658960124823</v>
       </c>
     </row>
     <row r="20">
@@ -11229,19 +11229,19 @@
         <v>44012</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33185</v>
+        <v>33137</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55211</v>
+        <v>55399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3352372455197766</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2527657303989745</v>
+        <v>0.2524013263668016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4205339346037545</v>
+        <v>0.4219681050748625</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -11250,19 +11250,19 @@
         <v>56825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47178</v>
+        <v>46987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67454</v>
+        <v>67774</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3303350375326589</v>
+        <v>0.3303350375326588</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2742524907325357</v>
+        <v>0.2731411894588318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3921221316734915</v>
+        <v>0.3939827298813265</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>125</v>
@@ -11271,19 +11271,19 @@
         <v>100837</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86751</v>
+        <v>86697</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117283</v>
+        <v>118002</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.332456944068668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2860161867799688</v>
+        <v>0.2858357559668336</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3866769194311551</v>
+        <v>0.3890500296780358</v>
       </c>
     </row>
     <row r="21">
@@ -11300,19 +11300,19 @@
         <v>17431</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10714</v>
+        <v>10729</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26528</v>
+        <v>26696</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1327715090790511</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08160441944086275</v>
+        <v>0.08172254880094519</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2020575290253236</v>
+        <v>0.2033427527366121</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -11321,19 +11321,19 @@
         <v>23565</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16971</v>
+        <v>17287</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31324</v>
+        <v>30586</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1369864476477406</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09865658529870412</v>
+        <v>0.1004898524930912</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1820939330545352</v>
+        <v>0.1778011155718128</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -11342,19 +11342,19 @@
         <v>40996</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30894</v>
+        <v>31652</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52863</v>
+        <v>53190</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1351620236899481</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1018555946347261</v>
+        <v>0.1043560540858637</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1742875747478805</v>
+        <v>0.1753671727989334</v>
       </c>
     </row>
     <row r="22">
@@ -11371,19 +11371,19 @@
         <v>41550</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31681</v>
+        <v>31141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53272</v>
+        <v>53500</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3164828716603749</v>
+        <v>0.316482871660375</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2413116497848291</v>
+        <v>0.2371994774004394</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4057646032266884</v>
+        <v>0.4075018211816228</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -11392,19 +11392,19 @@
         <v>48021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39237</v>
+        <v>38217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58398</v>
+        <v>57584</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.279157129583294</v>
+        <v>0.2791571295832939</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2280940679302056</v>
+        <v>0.2221597458345296</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3394784470534666</v>
+        <v>0.3347441248971121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -11413,19 +11413,19 @@
         <v>89571</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75959</v>
+        <v>74925</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105047</v>
+        <v>104529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2953134689884927</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2504339694627595</v>
+        <v>0.247024432019796</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3463350942524094</v>
+        <v>0.3446298222115799</v>
       </c>
     </row>
     <row r="23">
@@ -11517,19 +11517,19 @@
         <v>34516</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25044</v>
+        <v>24692</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45129</v>
+        <v>44771</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2612780409118398</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1895723757640032</v>
+        <v>0.1869106543815913</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3416090456609576</v>
+        <v>0.338903777387424</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -11538,19 +11538,19 @@
         <v>39856</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32174</v>
+        <v>31812</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48831</v>
+        <v>49534</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2730390488668337</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2204140690231575</v>
+        <v>0.2179378137711908</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3345294261258918</v>
+        <v>0.3393453150049331</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>100</v>
@@ -11559,19 +11559,19 @@
         <v>74372</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60957</v>
+        <v>62245</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88091</v>
+        <v>88320</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2674517244283715</v>
+        <v>0.2674517244283716</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2192106743600963</v>
+        <v>0.2238403913497097</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3167891822180735</v>
+        <v>0.3176110721958086</v>
       </c>
     </row>
     <row r="25">
@@ -11588,19 +11588,19 @@
         <v>38579</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28849</v>
+        <v>28708</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49193</v>
+        <v>49220</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2920310686121874</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2183812126119501</v>
+        <v>0.2173139521320928</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3723746398897097</v>
+        <v>0.3725769600997844</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -11609,19 +11609,19 @@
         <v>40827</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32968</v>
+        <v>32140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49892</v>
+        <v>49548</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2796945535950072</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2258554833105312</v>
+        <v>0.2201796934390263</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3417956852455331</v>
+        <v>0.3394395929818533</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>104</v>
@@ -11630,19 +11630,19 @@
         <v>79406</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66779</v>
+        <v>66092</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94575</v>
+        <v>92592</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.285555285269088</v>
+        <v>0.2855552852690879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2401460521153689</v>
+        <v>0.2376747822844191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3401039858308977</v>
+        <v>0.3329729427902016</v>
       </c>
     </row>
     <row r="26">
@@ -11659,19 +11659,19 @@
         <v>21480</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14453</v>
+        <v>15003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30966</v>
+        <v>31743</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1625964954156206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1094079050029009</v>
+        <v>0.1135710654236326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2344045632651733</v>
+        <v>0.2402880709266101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -11680,19 +11680,19 @@
         <v>25810</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18829</v>
+        <v>18920</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33615</v>
+        <v>33614</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1768170797949582</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.128993991390747</v>
+        <v>0.1296126233885522</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2302904413384937</v>
+        <v>0.2302797934519406</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>64</v>
@@ -11701,19 +11701,19 @@
         <v>47290</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>37372</v>
+        <v>36602</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58142</v>
+        <v>58862</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1700612797023183</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1343959810027214</v>
+        <v>0.131625971323582</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2090879744299856</v>
+        <v>0.2116764363617775</v>
       </c>
     </row>
     <row r="27">
@@ -11730,19 +11730,19 @@
         <v>37531</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>28559</v>
+        <v>28428</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48354</v>
+        <v>46723</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.284094395060352</v>
+        <v>0.2840943950603521</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2161841292421247</v>
+        <v>0.2151911845545446</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3660217812590478</v>
+        <v>0.3536747283090636</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>66</v>
@@ -11751,19 +11751,19 @@
         <v>39477</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>31863</v>
+        <v>31718</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>48357</v>
+        <v>48351</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2704493177432007</v>
+        <v>0.2704493177432008</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2182850522373108</v>
+        <v>0.21729064041355</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3312782702466558</v>
+        <v>0.3312417141523361</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>109</v>
@@ -11772,19 +11772,19 @@
         <v>77008</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>64498</v>
+        <v>65028</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>90530</v>
+        <v>90364</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2769317106002224</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2319429999193323</v>
+        <v>0.2338480891735042</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3255577449449059</v>
+        <v>0.3249604028913302</v>
       </c>
     </row>
     <row r="28">
@@ -11876,19 +11876,19 @@
         <v>23962</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16538</v>
+        <v>17113</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32044</v>
+        <v>31743</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.215694160105286</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1488639343911903</v>
+        <v>0.1540419000296176</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2884382649828577</v>
+        <v>0.285727269032264</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -11897,19 +11897,19 @@
         <v>23621</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18170</v>
+        <v>17724</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31248</v>
+        <v>30290</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1896795168091509</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1459058548269416</v>
+        <v>0.142328571190204</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2509256206601009</v>
+        <v>0.2432338338258115</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>74</v>
@@ -11918,19 +11918,19 @@
         <v>47583</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38256</v>
+        <v>39022</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58682</v>
+        <v>59199</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2019451279307233</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1623582595136363</v>
+        <v>0.1656119405600256</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.249046528603325</v>
+        <v>0.2512423146278562</v>
       </c>
     </row>
     <row r="30">
@@ -11947,19 +11947,19 @@
         <v>30851</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23716</v>
+        <v>23711</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39300</v>
+        <v>40204</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.277697852647236</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2134739025346205</v>
+        <v>0.2134325288984249</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3537527535161366</v>
+        <v>0.361896193768837</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -11968,19 +11968,19 @@
         <v>41398</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34077</v>
+        <v>33769</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>48831</v>
+        <v>49266</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.332432969561181</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2736482355988097</v>
+        <v>0.2711698405114573</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3921191635829732</v>
+        <v>0.3956131463142457</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>116</v>
@@ -11989,19 +11989,19 @@
         <v>72249</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61953</v>
+        <v>61977</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>84048</v>
+        <v>83620</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.306625978816857</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2629290237166774</v>
+        <v>0.2630343633034951</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.356700780065514</v>
+        <v>0.3548851830528538</v>
       </c>
     </row>
     <row r="31">
@@ -12018,19 +12018,19 @@
         <v>22806</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16632</v>
+        <v>16372</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31967</v>
+        <v>30404</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.205282340807767</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1497102166798975</v>
+        <v>0.1473688985506212</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.287744183309541</v>
+        <v>0.2736755121170872</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>46</v>
@@ -12039,19 +12039,19 @@
         <v>25380</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19229</v>
+        <v>19498</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>32820</v>
+        <v>32717</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.203809612639568</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1544104408497555</v>
+        <v>0.1565690517875382</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2635531318331191</v>
+        <v>0.2627202685837308</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>79</v>
@@ -12060,19 +12060,19 @@
         <v>48186</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38632</v>
+        <v>38175</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57494</v>
+        <v>57635</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2045039873728013</v>
+        <v>0.2045039873728014</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1639558912853938</v>
+        <v>0.1620163197561299</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2440050871185275</v>
+        <v>0.2446053128135233</v>
       </c>
     </row>
     <row r="32">
@@ -12089,19 +12089,19 @@
         <v>33475</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25662</v>
+        <v>25462</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42377</v>
+        <v>42034</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.301325646439711</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2309948604621052</v>
+        <v>0.2291925860576059</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3814475435195926</v>
+        <v>0.3783666437559456</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>67</v>
@@ -12110,19 +12110,19 @@
         <v>34131</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27275</v>
+        <v>27246</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41738</v>
+        <v>42227</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2740779009901</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.219019870867238</v>
+        <v>0.2187935633290127</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3351629439491573</v>
+        <v>0.3390874075406766</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>113</v>
@@ -12131,19 +12131,19 @@
         <v>67607</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55776</v>
+        <v>57020</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>78524</v>
+        <v>78505</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2869249058796183</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2367160431809112</v>
+        <v>0.2419934266009573</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3332604171255112</v>
+        <v>0.3331769948612024</v>
       </c>
     </row>
     <row r="33">
@@ -12235,19 +12235,19 @@
         <v>15020</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9879</v>
+        <v>9631</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21919</v>
+        <v>21665</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1833583955782342</v>
+        <v>0.1833583955782343</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1206041011745696</v>
+        <v>0.1175720913190189</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.267577383842698</v>
+        <v>0.2644764213605869</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>33</v>
@@ -12256,19 +12256,19 @@
         <v>20889</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15223</v>
+        <v>15187</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29729</v>
+        <v>29074</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1546728073868602</v>
+        <v>0.1546728073868601</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1127228402425147</v>
+        <v>0.1124549634063428</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2201323291046103</v>
+        <v>0.2152846997927956</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>54</v>
@@ -12277,19 +12277,19 @@
         <v>35908</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28046</v>
+        <v>27692</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46015</v>
+        <v>46379</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1655030889836642</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1292658426538094</v>
+        <v>0.1276321658220028</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2120857344873771</v>
+        <v>0.2137636883906344</v>
       </c>
     </row>
     <row r="35">
@@ -12306,19 +12306,19 @@
         <v>27058</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20573</v>
+        <v>20149</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>34532</v>
+        <v>34371</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3303132701774402</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2511505232525659</v>
+        <v>0.2459687849071775</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4215550686497979</v>
+        <v>0.4195962493055556</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>70</v>
@@ -12327,19 +12327,19 @@
         <v>40344</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>32682</v>
+        <v>32206</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>49434</v>
+        <v>48499</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2987348310263939</v>
+        <v>0.2987348310263938</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2419960630382262</v>
+        <v>0.2384746375631139</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3660446712905548</v>
+        <v>0.3591177516484108</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>108</v>
@@ -12348,19 +12348,19 @@
         <v>67402</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>56946</v>
+        <v>57121</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79119</v>
+        <v>78241</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3106573123125267</v>
+        <v>0.3106573123125268</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2624675241902912</v>
+        <v>0.2632743970458909</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3646622162884523</v>
+        <v>0.3606178348268881</v>
       </c>
     </row>
     <row r="36">
@@ -12377,19 +12377,19 @@
         <v>17438</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11759</v>
+        <v>11616</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25064</v>
+        <v>23957</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2128824579299784</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.143548620202136</v>
+        <v>0.1418113317045194</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3059786930752243</v>
+        <v>0.2924634440203535</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>62</v>
@@ -12398,19 +12398,19 @@
         <v>34777</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>27308</v>
+        <v>27434</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>42991</v>
+        <v>42884</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2575107563080981</v>
+        <v>0.2575107563080979</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.20220573033797</v>
+        <v>0.2031395728454341</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3183304257845483</v>
+        <v>0.3175379503663145</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>88</v>
@@ -12419,19 +12419,19 @@
         <v>52215</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>42573</v>
+        <v>42862</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>62259</v>
+        <v>62754</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2406612834858335</v>
+        <v>0.2406612834858336</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1962191766326556</v>
+        <v>0.1975533894271054</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2869558990869064</v>
+        <v>0.2892377670783186</v>
       </c>
     </row>
     <row r="37">
@@ -12448,19 +12448,19 @@
         <v>22399</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16048</v>
+        <v>16279</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29263</v>
+        <v>29199</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2734458763143472</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1959114539735934</v>
+        <v>0.1987313058031141</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3572358961114865</v>
+        <v>0.3564490015697335</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>79</v>
@@ -12469,19 +12469,19 @@
         <v>39040</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31408</v>
+        <v>31405</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>47011</v>
+        <v>46883</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.289081605278648</v>
+        <v>0.2890816052786479</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2325685478250462</v>
+        <v>0.2325443785332963</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3481037075258903</v>
+        <v>0.3471560795246181</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>116</v>
@@ -12490,19 +12490,19 @@
         <v>61440</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>51084</v>
+        <v>52562</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71369</v>
+        <v>72450</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2831783152179754</v>
+        <v>0.2831783152179755</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2354479283750326</v>
+        <v>0.2422599838537458</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3289433842082868</v>
+        <v>0.3339239953206569</v>
       </c>
     </row>
     <row r="38">
@@ -12594,19 +12594,19 @@
         <v>120965</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>100774</v>
+        <v>101181</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>141961</v>
+        <v>142831</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1856141028286721</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.15463216596573</v>
+        <v>0.1552562462081707</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2178308564900694</v>
+        <v>0.2191661984023104</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>256</v>
@@ -12615,19 +12615,19 @@
         <v>178282</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>157805</v>
+        <v>157857</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>200502</v>
+        <v>201128</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2040899661325634</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1806487709366804</v>
+        <v>0.1807081184303071</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2295259425350427</v>
+        <v>0.2302431489835393</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>385</v>
@@ -12636,19 +12636,19 @@
         <v>299248</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>272521</v>
+        <v>271733</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>328761</v>
+        <v>328849</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.196195660747419</v>
+        <v>0.1961956607474191</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1786731595291536</v>
+        <v>0.1781563593796125</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2155452650102627</v>
+        <v>0.2156033290308597</v>
       </c>
     </row>
     <row r="40">
@@ -12665,19 +12665,19 @@
         <v>188368</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>165256</v>
+        <v>165685</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>213783</v>
+        <v>213135</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2890392325605572</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2535748463439609</v>
+        <v>0.2542341684945597</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3280362664974827</v>
+        <v>0.327042801509023</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>390</v>
@@ -12686,19 +12686,19 @@
         <v>267672</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>243205</v>
+        <v>246099</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>291967</v>
+        <v>293496</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3064194497804777</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.27841096367493</v>
+        <v>0.2817234203578004</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3342311079408117</v>
+        <v>0.3359820584960715</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>588</v>
@@ -12707,19 +12707,19 @@
         <v>456040</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>422759</v>
+        <v>422550</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>487047</v>
+        <v>492345</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2989932884078019</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2771737190650663</v>
+        <v>0.2770361886503899</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3193227241374062</v>
+        <v>0.3227957765925398</v>
       </c>
     </row>
     <row r="41">
@@ -12736,19 +12736,19 @@
         <v>115693</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>98724</v>
+        <v>97012</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>139054</v>
+        <v>138004</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1775245860244856</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1514858913289216</v>
+        <v>0.1488586144035271</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.213370144254819</v>
+        <v>0.2117590668387969</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>229</v>
@@ -12757,19 +12757,19 @@
         <v>153453</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>136653</v>
+        <v>135455</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>176066</v>
+        <v>174525</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1756668146914169</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1564345340474923</v>
+        <v>0.1550626788791122</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2015524628644267</v>
+        <v>0.199789420909209</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>353</v>
@@ -12778,19 +12778,19 @@
         <v>269147</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>239659</v>
+        <v>242733</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>299950</v>
+        <v>296366</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1764605970439808</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1571276001491971</v>
+        <v>0.1591430075782774</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1966563629890976</v>
+        <v>0.1943063709100052</v>
       </c>
     </row>
     <row r="42">
@@ -12807,19 +12807,19 @@
         <v>226677</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>201429</v>
+        <v>203885</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>254764</v>
+        <v>253605</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3478220785862849</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3090803212408323</v>
+        <v>0.3128486195804648</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3909199053205722</v>
+        <v>0.3891413260001869</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>397</v>
@@ -12828,19 +12828,19 @@
         <v>274140</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>251345</v>
+        <v>249527</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>300759</v>
+        <v>300007</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.313823769395542</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2877294873381678</v>
+        <v>0.2856478063701949</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3442962005869793</v>
+        <v>0.3434349459335473</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>621</v>
@@ -12849,19 +12849,19 @@
         <v>500817</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>462321</v>
+        <v>464722</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>536861</v>
+        <v>536927</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3283504538007982</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3031114026152041</v>
+        <v>0.3046854811905472</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3519823874557935</v>
+        <v>0.3520255002294529</v>
       </c>
     </row>
     <row r="43">
